--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Documents\UCSD\ECE-111-Verilog\Labs\Final_Project\bitcoin_hash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirtan/Documents/GitHub/ECE111_Collaboration/simplified_sha256/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C8974F-F837-42F1-A555-1AF19552B09F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CC9E4-D125-E843-AC99-E4EB97E2C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Last Name</t>
   </si>
@@ -75,12 +80,6 @@
     <t>Performance (High Effort)</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Lillard</t>
   </si>
   <si>
@@ -90,13 +89,22 @@
     <t>A57899087</t>
   </si>
   <si>
-    <t>A45623148</t>
-  </si>
-  <si>
-    <t>jscott@ucsd.edu</t>
-  </si>
-  <si>
     <t>dlillard@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Kirtan</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>A16227067</t>
+  </si>
+  <si>
+    <t>kishah@ucsd.edu</t>
+  </si>
+  <si>
+    <t>A01</t>
   </si>
   <si>
     <r>
@@ -107,7 +115,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>bitcoin_hash.sv</t>
+      <t>simplified_sha256.sv</t>
     </r>
     <r>
       <rPr>
@@ -687,7 +695,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,47 +706,43 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1124,146 +1128,146 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
+      <c r="E3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>28620</v>
+        <v>1771</v>
       </c>
       <c r="H3" s="4">
-        <v>16969</v>
+        <v>1783</v>
       </c>
       <c r="I3" s="5">
         <f>G3+H3</f>
-        <v>45589</v>
+        <v>3554</v>
       </c>
       <c r="J3" s="6">
-        <v>171.35</v>
+        <v>186.32</v>
       </c>
       <c r="K3" s="4">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L3" s="7">
         <f>K3/J3</f>
-        <v>1.1088415523781734</v>
+        <v>0.90167453842851009</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" ref="M3" si="0">I3*L3/1000</f>
-        <v>50.550977531368545</v>
+        <v>3.2045513095749247</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1274,21 +1278,21 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>

--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirtan/Documents/GitHub/ECE111_Collaboration/simplified_sha256/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CC9E4-D125-E843-AC99-E4EB97E2C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6056F2-7510-A44D-875D-929A9E568301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>

--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirtan/Documents/GitHub/ECE111_Collaboration/simplified_sha256/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\ucsd stuff\ECE 111\ECE111_Collaboration\simplified_sha256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6056F2-7510-A44D-875D-929A9E568301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26E905-D902-4FD2-9395-9B907946E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Last Name</t>
   </si>
@@ -74,22 +74,7 @@
     <t>Compiler Settings</t>
   </si>
   <si>
-    <t>B00</t>
-  </si>
-  <si>
     <t>Performance (High Effort)</t>
-  </si>
-  <si>
-    <t>Lillard</t>
-  </si>
-  <si>
-    <t>Damien</t>
-  </si>
-  <si>
-    <t>A57899087</t>
-  </si>
-  <si>
-    <t>dlillard@ucsd.edu</t>
   </si>
   <si>
     <t>Kirtan</t>
@@ -126,6 +111,18 @@
       </rPr>
       <t xml:space="preserve"> (MIN DELAY DESIGN)</t>
     </r>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>Hsu</t>
+  </si>
+  <si>
+    <t>A16665092</t>
+  </si>
+  <si>
+    <t>cjhsu@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -805,9 +802,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -845,9 +842,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,26 +877,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,26 +912,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1128,38 +1091,38 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -1177,7 +1140,7 @@
       <c r="T1" s="15"/>
       <c r="U1" s="16"/>
     </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1226,24 +1189,24 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>1771</v>
@@ -1278,48 +1241,48 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="4">
-        <v>28620</v>
+        <v>1771</v>
       </c>
       <c r="H4" s="4">
-        <v>16969</v>
+        <v>1783</v>
       </c>
       <c r="I4" s="5">
         <f>G4+H4</f>
-        <v>45589</v>
+        <v>3554</v>
       </c>
       <c r="J4" s="6">
-        <v>171.35</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7">
         <f>K4/J4</f>
-        <v>1.3131018383425737</v>
+        <v>1.0725229826353422</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4" si="1">I4*L4/1000</f>
-        <v>59.862999708199588</v>
+        <v>3.8117466802860061</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>

--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\ucsd stuff\ECE 111\ECE111_Collaboration\simplified_sha256\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuha\OneDrive\Documents\GitHub\ECE111_Collaboration\simplified_sha256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D26E905-D902-4FD2-9395-9B907946E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E20E9-06AC-4B74-B75B-5D235484C657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29805" yWindow="5115" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Last Name</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>cjhsu@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Haozhang</t>
+  </si>
+  <si>
+    <t>A16484292</t>
+  </si>
+  <si>
+    <t>hachu@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,10 +1255,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -1292,6 +1304,58 @@
       <c r="S4" s="4"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1771</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1783</v>
+      </c>
+      <c r="I5" s="5">
+        <f>G5+H5</f>
+        <v>3554</v>
+      </c>
+      <c r="J5" s="6">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>168</v>
+      </c>
+      <c r="L5" s="7">
+        <f>K5/J5</f>
+        <v>1.0725229826353422</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" ref="M5" si="2">I5*L5/1000</f>
+        <v>3.8117466802860061</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1302,8 +1366,9 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D2C0E120-7830-4F4D-A57E-999759B7D5A3}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{22AB6B49-9FF5-42A2-B944-D37142EC249F}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{52E8AAD1-B723-4E8C-9E99-7C6B776004F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>